--- a/reports/fruitTrees/pear/pear-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/fruitTrees/pear/pear-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.5'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450'</t>
+    <t xml:space="preserve">26.11.3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN1</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">AT1G09415</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415'</t>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN-3</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">ARR-B</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4.2.1.3.2' | '14.5.3.2.8'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein' | 'RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190'</t>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
   </si>
   <si>
     <t xml:space="preserve">RR19</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">BGLU18</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400'</t>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
   </si>
   <si>
     <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">PR13</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260'</t>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT1G72260</t>
   </si>
   <si>
     <t xml:space="preserve">THI2.1</t>
@@ -155,13 +155,13 @@
     <t xml:space="preserve">DR4</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3.7.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330'</t>
+    <t xml:space="preserve">19.3.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.proteolysis.protease inhibitor activities.Kunitz protease inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: Kunitz protease inhibitor &amp; original description: | AT1G73330</t>
   </si>
   <si>
     <t xml:space="preserve">ATDR4 | drought-repressed 4</t>
@@ -179,13 +179,13 @@
     <t xml:space="preserve">HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310'</t>
+    <t xml:space="preserve">19.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G22000</t>
@@ -197,13 +197,13 @@
     <t xml:space="preserve">PEP</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000'</t>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP6</t>
@@ -218,13 +218,13 @@
     <t xml:space="preserve">LST8</t>
   </si>
   <si>
-    <t xml:space="preserve">27.10.1.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040'</t>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
   </si>
   <si>
     <t xml:space="preserve">LST8-2</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">REM12</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.9.2.3'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680'</t>
+    <t xml:space="preserve">14.5.9.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-barrel DNA-binding domain.REM family.subgroup-C transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: REM subgroup-C transcription factor &amp; original description: | AT2G24680</t>
   </si>
   <si>
     <t xml:space="preserve">AT2G26020</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">PDF1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.3.3.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020'</t>
+    <t xml:space="preserve">26.11.3.3.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.defense enzyme activities.defensin activities.defensin *(PDF1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT2G26020</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2b</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">AT2G27070</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT2G27070' | 'mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT2G27070'</t>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT2G27070 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT2G27070</t>
   </si>
   <si>
     <t xml:space="preserve">RR13</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">JR1</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
   </si>
   <si>
     <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">ETP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
   </si>
   <si>
     <t xml:space="preserve">ETP2</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">AT3G18980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
   </si>
   <si>
     <t xml:space="preserve">ETP1</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">AT3G25882</t>
   </si>
   <si>
-    <t xml:space="preserve">26.11.3.1.6'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN2)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN2) of Systemic Acquired Resistance &amp; original description: | AT3G25882'</t>
+    <t xml:space="preserve">26.11.3.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.pathogen.defense mechanisms.systemic acquired resistance (SAR).regulatory protein *(NIMIN2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN2) of Systemic Acquired Resistance &amp; original description: | AT3G25882</t>
   </si>
   <si>
     <t xml:space="preserve">NIMIN-2</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">AT3G46230</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1.9.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230'</t>
+    <t xml:space="preserve">19.1.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-I protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT3G46230</t>
   </si>
   <si>
     <t xml:space="preserve">HSP17.4</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">AT3G62670</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G62670</t>
   </si>
   <si>
     <t xml:space="preserve">RR20</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">GAMT1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6.3.2' | '50.2.1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT)' | 'Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420'</t>
+    <t xml:space="preserve">10.6.3.2 | 50.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.conjugation and degradation.SAM-dependent carboxyl methyltransferase *(GAMT) | Enzyme classification.EC_2 transferases.EC_2-1 transferase transferring one-carbon group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT4G26420 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT4G26420</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT1</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">CYP83B1</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1.1.6.3' | '50.1.13'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clade-specific metabolism.Brassicaceae.glucosinolate biosynthesis.benzenic and indolic core structure.aldoxime oxidase' | 'Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: aldoxime oxidase &amp; original description: | AT4G31500' | 'mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G31500'</t>
+    <t xml:space="preserve">30.1.1.6.3 | 50.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clade-specific metabolism.Brassicaceae.glucosinolate biosynthesis.benzenic and indolic core structure.aldoxime oxidase | Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: aldoxime oxidase &amp; original description: | AT4G31500 | mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G31500</t>
   </si>
   <si>
     <t xml:space="preserve">RED ELONGATED 1 | ATR4 | SUPERROOT 2 | RUNT 1 | SUR2 | RNT1 | ALTERED TRYPTOPHAN REGULATION 4 | RED1</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">AT5G09976</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G09978</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978'</t>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
   </si>
   <si>
     <t xml:space="preserve">PEP7</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">AT5G09980</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP4</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">AT5G09990</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP5</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">BCCP1</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3.2.3.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipid metabolism.fatty acid metabolism.acetyl-CoA carboxylation.polymeric acetyl-CoA carboxylase complex.BC-BCCP-BADC subcomplex.biotin carboxyl carrier component *(BCCP)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: biotin carboxyl carrier component of polymeric acetyl-CoA carboxylase complex &amp; original description: | AT5G16390'</t>
+    <t xml:space="preserve">5.1.3.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipid metabolism.fatty acid metabolism.acetyl-CoA carboxylation.polymeric acetyl-CoA carboxylase complex.BC-BCCP-BADC subcomplex.biotin carboxyl carrier component *(BCCP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: biotin carboxyl carrier component of polymeric acetyl-CoA carboxylase complex &amp; original description: | AT5G16390</t>
   </si>
   <si>
     <t xml:space="preserve">CAC1</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">ERF016</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5.7.10.2.2'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-hairpin exposed by alpha/beta-scaffold structure.ERF transcription factor activity.subgroup ERF-II transcriptional regulator activities.subgroup ERF-II transcription factor *(ERF16/17/18)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: subgroup ERF-II transcription factor *(ERF16/17/18) &amp; original description: | AT5G21960'</t>
+    <t xml:space="preserve">14.5.7.10.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA biosynthesis.DNA-binding transcriptional regulation.beta-hairpin exposed by alpha/beta-scaffold structure.ERF transcription factor activity.subgroup ERF-II transcriptional regulator activities.subgroup ERF-II transcription factor *(ERF16/17/18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: subgroup ERF-II transcription factor *(ERF16/17/18) &amp; original description: | AT5G21960</t>
   </si>
   <si>
     <t xml:space="preserve">AT5G23580</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">CPK12</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.4.4' | '27.8.1.4' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.CAMK protein kinase activities.CDPK protein kinase' | 'Multi-process regulation.calcium homeostasis.Ca2+-dependent signalling.calcium sensor and kinase *(CPK1/2/++)' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: CDPK protein kinase &amp; original description: | AT5G23580' | 'mercator4v7.0: calcium sensor and kinase *(CPK1/2/++) &amp; original description: | AT5G23580' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G23580'</t>
+    <t xml:space="preserve">18.4.4.4 | 27.8.1.4 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.CAMK protein kinase activities.CDPK protein kinase | Multi-process regulation.calcium homeostasis.Ca2+-dependent signalling.calcium sensor and kinase *(CPK1/2/++) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: CDPK protein kinase &amp; original description: | AT5G23580 | mercator4v7.0: calcium sensor and kinase *(CPK1/2/++) &amp; original description: | AT5G23580 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G23580</t>
   </si>
   <si>
     <t xml:space="preserve">CDPK9</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">AT5G44420</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44420</t>
   </si>
   <si>
     <t xml:space="preserve">LCR77 | PDF1.2A | LOW-MOLECULAR-WEIGHT CYSTEINE-RICH 77 | PLANT DEFENSIN 1.2A</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">AT5G44430</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430'</t>
+    <t xml:space="preserve">mercator4v7.0: defensin *(PDF1) &amp; original description: | AT5G44430</t>
   </si>
   <si>
     <t xml:space="preserve">PDF1.2c</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">AT5G56300</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300' | 'mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300'</t>
+    <t xml:space="preserve">mercator4v7.0: SAM-dependent carboxyl methyltransferase *(GAMT) &amp; original description: | AT5G56300 | mercator4v7.0: EC_2.1 transferase transferring one-carbon group &amp; original description: | AT5G56300</t>
   </si>
   <si>
     <t xml:space="preserve">GAMT2</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">HSP18.1-CI | HSP</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720'</t>
+    <t xml:space="preserve">mercator4v7.0: class-C-I small heat-shock-responsive protein &amp; original description: | AT5G59720</t>
   </si>
   <si>
     <t xml:space="preserve">HSP18.2</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">LECRK19</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4.1.19.2' | '50.2.7'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase' | 'Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300' | 'mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300'</t>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
   </si>
   <si>
     <t xml:space="preserve">LecRK-I.9</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">AT5G64890</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP2</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">AT5G64900</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP1</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">AT5G64905</t>
   </si>
   <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905'</t>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
   </si>
   <si>
     <t xml:space="preserve">PROPEP3</t>
@@ -627,15 +627,6 @@
   </si>
   <si>
     <t xml:space="preserve">clpP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3.2.7.1.1' | '50.3.4'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.proteolysis.serine peptidase activities.chloroplast Clp-type protease complex.ClpP proteolytic core activities.proteolytic component *(ClpP1)' | 'Enzyme classification.EC_3 hydrolases.EC_3-4 hydrolase acting on peptide bond (peptidase)'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: proteolytic component *(ClpP1) of chloroplast Clp-type protease complex &amp; original description: | ATCG00670' | 'mercator4v7.0: EC_3.4 hydrolase acting on peptide bond (peptidase) &amp; original description: | ATCG00670'</t>
   </si>
   <si>
     <t xml:space="preserve">PCLPP</t>
@@ -2014,20 +2005,14 @@
       <c r="C45" t="s">
         <v>204</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="s">
         <v>205</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>206</v>
-      </c>
-      <c r="F45" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
